--- a/arcgis pro/excel-summary/Excel_Test_File.xlsx
+++ b/arcgis pro/excel-summary/Excel_Test_File.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestData" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -46,8 +47,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,4 +731,140 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/arcgis pro/excel-summary/Excel_Test_File.xlsx
+++ b/arcgis pro/excel-summary/Excel_Test_File.xlsx
@@ -1,135 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcveydb\dev\GIS-Utilities\arcgis pro\excel-summary\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CAE293-4FA9-4A9E-9022-9A644C5FCEF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TestData" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary_1" sheetId="3" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestData" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_5" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Excellent</t>
-  </si>
-  <si>
-    <t>Ethan</t>
-  </si>
-  <si>
-    <t>Boston</t>
-  </si>
-  <si>
-    <t>Needs Improvement</t>
-  </si>
-  <si>
-    <t>Fiona</t>
-  </si>
-  <si>
-    <t>San Francisco</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-  </si>
-  <si>
-    <t>Column Heading</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,22 +52,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -451,134 +414,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>85</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Charlie</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Diana</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>88</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ethan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>75</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Needs Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fiona</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>George</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>80</v>
       </c>
-      <c r="E8" t="s">
-        <v>7</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -587,110 +602,814 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
       </c>
       <c r="B2">
         <f>COUNTA(TestData!A:A)-1</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="C2">
         <f>COUNTA(TestData!A:A)-1</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="D2" s="1">
         <f>B2/C2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
       </c>
       <c r="B3">
         <f>COUNTA(TestData!B:B)-1</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="C3">
         <f>COUNTA(TestData!A:A)-1</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="D3" s="1">
         <f>B3/C3</f>
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
       </c>
       <c r="B4">
         <f>COUNTA(TestData!C:C)-1</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="C4">
         <f>COUNTA(TestData!A:A)-1</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="D4" s="1">
         <f>B4/C4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
       </c>
       <c r="B5">
         <f>COUNTA(TestData!D:D)-1</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="C5">
         <f>COUNTA(TestData!A:A)-1</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="D5" s="1">
         <f>B5/C5</f>
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
       </c>
       <c r="B6">
         <f>COUNTA(TestData!E:E)-1</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="C6">
         <f>COUNTA(TestData!A:A)-1</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="D6" s="1">
         <f>B6/C6</f>
-        <v>0.7142857142857143</v>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/arcgis pro/excel-summary/Excel_Test_File.xlsx
+++ b/arcgis pro/excel-summary/Excel_Test_File.xlsx
@@ -13,6 +13,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_3" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_4" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_8" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_9" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -601,13 +605,294 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <f>COUNTA(TestData!F:F)-1</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/C7</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(Summary_1!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(Summary_1!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(Summary_1!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6">
+        <f>COUNTA(Summary_1!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1415,4 +1700,181 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/arcgis pro/excel-summary/Excel_Test_File.xlsx
+++ b/arcgis pro/excel-summary/Excel_Test_File.xlsx
@@ -17,6 +17,26 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_7" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_8" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_9" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_10" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_11" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_12" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_13" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_14" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_15" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_16" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_17" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_18" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_19" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_20" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_21" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_22" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_23" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_24" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_25" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_26" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_27" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_28" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_29" sheetId="31" state="visible" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -886,6 +906,922 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <f>COUNTA(TestData!F:F)-1</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/C7</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(Summary_1!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(Summary_1!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(Summary_1!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6">
+        <f>COUNTA(Summary_1!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <f>COUNTA(TestData!F:F)-1</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/C7</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(Summary_1!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(Summary_1!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(Summary_1!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6">
+        <f>COUNTA(Summary_1!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1015,6 +1951,1099 @@
       <c r="D6" s="1">
         <f>B6/C6</f>
         <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <f>COUNTA(TestData!F:F)-1</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/C7</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(Summary_1!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(Summary_1!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(Summary_1!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6">
+        <f>COUNTA(Summary_1!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <f>COUNTA(TestData!F:F)-1</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/C7</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(Summary_1!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(Summary_1!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(Summary_1!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6">
+        <f>COUNTA(Summary_1!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1158,6 +3187,287 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <f>COUNTA(TestData!F:F)-1</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/C7</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(Summary_1!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(Summary_1!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(Summary_1!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6">
+        <f>COUNTA(Summary_1!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/arcgis pro/excel-summary/Excel_Test_File.xlsx
+++ b/arcgis pro/excel-summary/Excel_Test_File.xlsx
@@ -37,6 +37,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_27" sheetId="29" state="visible" r:id="rId29"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_28" sheetId="30" state="visible" r:id="rId30"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_29" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_30" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_31" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_32" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_33" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_34" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_35" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_36" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_37" sheetId="39" state="visible" r:id="rId39"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -3468,6 +3476,922 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <f>COUNTA(TestData!F:F)-1</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/C7</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(Summary_1!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(Summary_1!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(Summary_1!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6">
+        <f>COUNTA(Summary_1!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <f>COUNTA(TestData!F:F)-1</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/C7</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(Summary_1!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(Summary_1!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(Summary_1!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6">
+        <f>COUNTA(Summary_1!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/arcgis pro/excel-summary/Excel_Test_File.xlsx
+++ b/arcgis pro/excel-summary/Excel_Test_File.xlsx
@@ -45,6 +45,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_35" sheetId="37" state="visible" r:id="rId37"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_36" sheetId="38" state="visible" r:id="rId38"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_37" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_38" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_39" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_40" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_41" sheetId="43" state="visible" r:id="rId43"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -4528,6 +4532,464 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <f>COUNTA(TestData!F:F)-1</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/C7</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(Summary_1!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(Summary_1!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(Summary_1!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6">
+        <f>COUNTA(Summary_1!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/arcgis pro/excel-summary/Excel_Test_File.xlsx
+++ b/arcgis pro/excel-summary/Excel_Test_File.xlsx
@@ -49,6 +49,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_39" sheetId="41" state="visible" r:id="rId41"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_40" sheetId="42" state="visible" r:id="rId42"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_41" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_42" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_43" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_44" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_45" sheetId="47" state="visible" r:id="rId47"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -4990,6 +4994,464 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <f>COUNTA(TestData!F:F)-1</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/C7</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(Summary_1!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(Summary_1!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(Summary_1!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6">
+        <f>COUNTA(Summary_1!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/arcgis pro/excel-summary/Excel_Test_File.xlsx
+++ b/arcgis pro/excel-summary/Excel_Test_File.xlsx
@@ -53,6 +53,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_43" sheetId="45" state="visible" r:id="rId45"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_44" sheetId="46" state="visible" r:id="rId46"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_45" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_46" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_47" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_48" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_49" sheetId="51" state="visible" r:id="rId51"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -5452,6 +5456,183 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -5576,6 +5757,287 @@
       </c>
       <c r="C6">
         <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <f>COUNTA(TestData!F:F)-1</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/C7</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(Summary_1!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(Summary_1!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(Summary_1!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6">
+        <f>COUNTA(Summary_1!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(Summary_1!A:A)-1</f>
         <v/>
       </c>
       <c r="D6" s="1">

--- a/arcgis pro/excel-summary/Excel_Test_File.xlsx
+++ b/arcgis pro/excel-summary/Excel_Test_File.xlsx
@@ -57,6 +57,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_47" sheetId="49" state="visible" r:id="rId49"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_48" sheetId="50" state="visible" r:id="rId50"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_49" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_50" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_51" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_52" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_53" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_54" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_55" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_56" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_57" sheetId="59" state="visible" r:id="rId59"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -6050,6 +6058,922 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <f>COUNTA(TestData!F:F)-1</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/C7</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(Summary_1!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(Summary_1!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(Summary_1!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6">
+        <f>COUNTA(Summary_1!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <f>COUNTA(TestData!F:F)-1</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/C7</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(Summary_1!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(Summary_1!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(Summary_1!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6">
+        <f>COUNTA(Summary_1!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/arcgis pro/excel-summary/Excel_Test_File.xlsx
+++ b/arcgis pro/excel-summary/Excel_Test_File.xlsx
@@ -65,6 +65,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_55" sheetId="57" state="visible" r:id="rId57"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_56" sheetId="58" state="visible" r:id="rId58"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_57" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_58" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_59" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_60" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_61" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_62" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_63" sheetId="65" state="visible" r:id="rId65"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1856,7 +1862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7110,6 +7116,641 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <f>COUNTA(TestData!F:F)-1</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/C7</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(Summary_1!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(Summary_1!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(Summary_1!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6">
+        <f>COUNTA(Summary_1!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/arcgis pro/excel-summary/Excel_Test_File.xlsx
+++ b/arcgis pro/excel-summary/Excel_Test_File.xlsx
@@ -71,6 +71,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_61" sheetId="63" state="visible" r:id="rId63"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_62" sheetId="64" state="visible" r:id="rId64"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_63" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_64" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_65" sheetId="67" state="visible" r:id="rId67"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1862,7 +1864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7751,6 +7753,287 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <f>COUNTA(TestData!F:F)-1</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/C7</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(Summary_1!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(Summary_1!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(Summary_1!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6">
+        <f>COUNTA(Summary_1!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/arcgis pro/excel-summary/Excel_Test_File.xlsx
+++ b/arcgis pro/excel-summary/Excel_Test_File.xlsx
@@ -73,6 +73,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_63" sheetId="65" state="visible" r:id="rId65"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_64" sheetId="66" state="visible" r:id="rId66"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_65" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_66" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_67" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_68" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_69" sheetId="71" state="visible" r:id="rId71"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -8034,6 +8038,183 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -8158,6 +8339,287 @@
       </c>
       <c r="C6">
         <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <f>COUNTA(TestData!F:F)-1</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/C7</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(Summary_1!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(Summary_1!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(Summary_1!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6">
+        <f>COUNTA(Summary_1!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(Summary_1!A:A)-1</f>
         <v/>
       </c>
       <c r="D6" s="1">

--- a/arcgis pro/excel-summary/Excel_Test_File.xlsx
+++ b/arcgis pro/excel-summary/Excel_Test_File.xlsx
@@ -77,6 +77,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_67" sheetId="69" state="visible" r:id="rId69"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_68" sheetId="70" state="visible" r:id="rId70"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_69" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_70" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_71" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_72" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_73" sheetId="75" state="visible" r:id="rId75"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -8632,6 +8636,464 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(TestData!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(TestData!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(TestData!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTA(TestData!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <f>COUNTA(TestData!F:F)-1</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>COUNTA(TestData!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/C7</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Column Heading</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>COUNTA(Summary_1!B:B)-1</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>COUNTA(Summary_1!C:C)-1</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTA(Summary_1!D:D)-1</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6">
+        <f>COUNTA(Summary_1!E:E)-1</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTA(Summary_1!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
